--- a/report-machinelearning.xlsx
+++ b/report-machinelearning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>単位行列：</t>
     <rPh sb="0" eb="2">
@@ -2022,6 +2022,38 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 4-3.パラメータの推定</t>
+    <rPh sb="13" eb="15">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行列に対して微分の操作をすれば推定量を得られる</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2172,12 +2204,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2185,6 +2211,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2207,13 +2239,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>110634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5180</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2245,7 +2277,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>18052</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>49827</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1199492" cy="267766"/>
@@ -2404,7 +2436,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4373218" cy="533544"/>
@@ -2709,7 +2741,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>60462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4373218" cy="280205"/>
@@ -3017,7 +3049,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1805610" cy="490968"/>
@@ -3281,7 +3313,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1954695" cy="283283"/>
@@ -3532,7 +3564,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3480353" cy="377347"/>
@@ -3875,13 +3907,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>148827</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>339398</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3912,13 +3944,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53579</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>220266</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>175312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3949,7 +3981,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3135085" cy="468141"/>
@@ -4415,13 +4447,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>407275</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4487,13 +4519,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4559,13 +4591,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4612,13 +4644,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>407275</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4684,13 +4716,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4734,13 +4766,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4806,13 +4838,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4859,13 +4891,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4912,7 +4944,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2609022" cy="300788"/>
@@ -5161,7 +5193,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>404190</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>39757</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4441136" cy="502253"/>
@@ -5442,7 +5474,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>404190</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>14909</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4441136" cy="361959"/>
@@ -5847,7 +5879,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>6627</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4441136" cy="436786"/>
@@ -6220,8 +6252,8 @@
       <xdr:rowOff>197126</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2006049" cy="288669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -6291,7 +6323,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6305,7 +6337,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6318,7 +6350,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6332,7 +6364,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6348,7 +6380,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6361,7 +6393,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6375,7 +6407,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6389,7 +6421,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6401,7 +6433,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6415,7 +6447,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6428,7 +6460,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6442,7 +6474,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6456,7 +6488,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6515,7 +6547,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -6635,8 +6667,8 @@
       <xdr:rowOff>72887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="788505" cy="267317"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
@@ -6728,7 +6760,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
@@ -6794,8 +6826,8 @@
       <xdr:rowOff>39757</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2503005" cy="288669"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
@@ -6865,7 +6897,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6879,7 +6911,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6906,7 +6938,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6922,7 +6954,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6949,7 +6981,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6963,7 +6995,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6975,7 +7007,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6989,7 +7021,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7016,7 +7048,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7030,7 +7062,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7089,7 +7121,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
@@ -7281,8 +7313,8 @@
       <xdr:rowOff>48040</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2503005" cy="573619"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
@@ -7524,7 +7556,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
@@ -7583,8 +7615,8 @@
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1565413" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
@@ -7650,7 +7682,7 @@
                               <a:srgbClr val="FF0000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7663,7 +7695,7 @@
                               <a:srgbClr val="FF0000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7677,7 +7709,7 @@
                               <a:srgbClr val="FF0000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7691,7 +7723,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7705,7 +7737,7 @@
                               <a:srgbClr val="FF0000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7718,7 +7750,7 @@
                               <a:srgbClr val="FF0000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7732,7 +7764,7 @@
                               <a:srgbClr val="FF0000"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7748,7 +7780,7 @@
                               <a:schemeClr val="accent1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7761,7 +7793,7 @@
                               <a:schemeClr val="accent1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7775,7 +7807,7 @@
                               <a:schemeClr val="accent1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7789,7 +7821,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7801,7 +7833,7 @@
                           <a:srgbClr val="7030A0"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -7819,7 +7851,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
@@ -7963,8 +7995,8 @@
       <xdr:rowOff>27332</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="956159"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
@@ -8021,15 +8053,9 @@
                     </m:r>
                     <m:r>
                       <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="+mn-lt"/>
-                      </a:rPr>
-                      <m:t>目的</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math"/>
                       </a:rPr>
-                      <m:t>変数</m:t>
+                      <m:t>目的変数</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -8217,7 +8243,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
@@ -8358,6 +8384,654 @@
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
                 <a:latin typeface="+mn-lt"/>
               </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>372718</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3586368" cy="554447"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1184414" y="11960088"/>
+              <a:ext cx="3586368" cy="554447"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑆𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑟𝑎𝑖𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑡𝑟𝑎𝑖𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑡𝑟𝑎𝑖𝑛</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:sup>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:acc>
+                                      <m:accPr>
+                                        <m:chr m:val="̂"/>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:accPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑦</m:t>
+                                        </m:r>
+                                      </m:e>
+                                    </m:acc>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup/>
+                                </m:sSubSup>
+                              </m:e>
+                              <m:sup>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math"/>
+                                      </a:rPr>
+                                      <m:t>𝑡𝑟𝑎𝑖𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>𝑡𝑟𝑎𝑖𝑛</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1184414" y="11960088"/>
+              <a:ext cx="3586368" cy="554447"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>〖𝑀𝑆𝐸〗_𝑡𝑟𝑎𝑖𝑛=1/𝑛_𝑡𝑟𝑎𝑖𝑛  ∑24_(𝑖=1)^(𝑛_𝑡𝑟𝑎𝑖𝑛)▒〖(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦 ̂_𝑖^ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^((</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑡𝑟𝑎𝑖𝑛) )−〖𝑦_𝑖〗^((𝑡𝑟𝑎𝑖𝑛)))〗^2 </a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>182219</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3586368" cy="414216"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1217545" y="13152784"/>
+              <a:ext cx="3586368" cy="414216"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝜕</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝜕</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑤</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑀𝑆𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑟𝑎𝑖𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1217545" y="13152784"/>
+              <a:ext cx="3586368" cy="414216"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑤 〖𝑀𝑆𝐸〗_𝑡𝑟𝑎𝑖𝑛=0</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -8655,11 +9329,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L197"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -8857,415 +9529,425 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E81" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>1</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E82" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
         <v>16</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>18</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
+      <c r="C115" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
         <v>35</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F131" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
         <v>37</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F132" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G124" t="s">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G125" t="s">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G126" t="s">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
         <v>42</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G138" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G130" t="s">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L132" t="s">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L141" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="L133" t="s">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L142" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
         <v>50</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G144" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
+    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G140" t="s">
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G141" t="s">
+    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
         <v>53</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G155" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
+    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
         <v>55</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G160" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J155" s="2"/>
-    </row>
-    <row r="156" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H156" s="5" t="s">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H165" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I156" s="6"/>
-    </row>
-    <row r="158" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E158" s="3" t="s">
+      <c r="I165" s="9"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E167" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="J167" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H160" s="5" t="s">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H169" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I160" s="6"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="I169" s="9"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>60</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F175" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F167" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K172" t="s">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K181" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D173" t="s">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D174" t="s">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D175" t="s">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>66</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G186" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D186" t="s">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D187" t="s">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D188" t="s">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D191" t="s">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D192" t="s">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196" t="s">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D197" t="s">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H169:I169"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9328,135 +10010,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
